--- a/Basedatos/BD_Connect.xlsx
+++ b/Basedatos/BD_Connect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ConecBolivia2\Basedatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{885A496D-8CE9-468E-8E29-EE58CFE3EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEB30B0-C241-494B-B4C5-DE1AE50FD2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A02C603-8BAB-478F-B658-6A1F41243C8E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{8A02C603-8BAB-478F-B658-6A1F41243C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,117 +20,203 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hp</author>
+    <author>Wilfredo Saez Garcia</author>
+  </authors>
+  <commentList>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{4A352997-0A83-46A3-B0E6-545EDB754E5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+veridicar que rol que  cumple : rol usuario ,rol aministrador </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{ABCC3414-F818-42BF-8EDB-95B537D7BC4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Wilfredo Saez Garcia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+se refiere a las ofertas que se crean</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>BASE DE DATOS CONNECT BOLIVIA</t>
   </si>
   <si>
-    <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t>ID producto PK</t>
-  </si>
-  <si>
-    <t>ID pedido FK</t>
-  </si>
-  <si>
-    <t>ID categoria FK</t>
-  </si>
-  <si>
-    <t>Nombre Producto (text)</t>
-  </si>
-  <si>
-    <t>Descrip. Producto ( text)</t>
-  </si>
-  <si>
-    <t>Precio Producto ( dec)</t>
-  </si>
-  <si>
-    <t>Oferta Producto ( dec)</t>
-  </si>
-  <si>
-    <t>Imagen Producto (Text)</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>ID Usuario PK</t>
-  </si>
-  <si>
-    <t>Nombre Usuario (text)</t>
-  </si>
-  <si>
-    <t>Apellido Usuario (text)</t>
-  </si>
-  <si>
-    <t>Email Usuario (text)</t>
-  </si>
-  <si>
-    <t>Password Usuario (text)</t>
-  </si>
-  <si>
-    <t>Rol Usuario (text)</t>
-  </si>
-  <si>
-    <t>Imagen Usuario (Text)</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>ID Categoria PK</t>
-  </si>
-  <si>
-    <t>Nombre categoria (text)</t>
-  </si>
-  <si>
-    <t>PEDIDOS</t>
-  </si>
-  <si>
-    <t>ID Pedidos PK</t>
-  </si>
-  <si>
-    <t>ID Usuario FK</t>
-  </si>
-  <si>
-    <t>Fecha Producto ( date)</t>
-  </si>
-  <si>
-    <t>Localidad Pedido (text)</t>
-  </si>
-  <si>
-    <t>Direccion Pedido (text)</t>
-  </si>
-  <si>
-    <t>Costo  Pedido (dec)</t>
-  </si>
-  <si>
-    <t>Fecha Pedido (date)</t>
-  </si>
-  <si>
-    <t>Hora Pedido (time)</t>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>nombre_producto</t>
+  </si>
+  <si>
+    <t>char(100)</t>
+  </si>
+  <si>
+    <t>estado_producto</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>carrito</t>
+  </si>
+  <si>
+    <t>id_carrito</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>detalle_pedido</t>
+  </si>
+  <si>
+    <t>precio_producto</t>
+  </si>
+  <si>
+    <t>desc_producto</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_pedido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_categoria </t>
+  </si>
+  <si>
+    <t>descrip_producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precio_producto </t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oferta_producto </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imagen_producto </t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre_usuario </t>
+  </si>
+  <si>
+    <t>apellido_usuario</t>
+  </si>
+  <si>
+    <t>estado_usuario</t>
+  </si>
+  <si>
+    <t>email_usuario</t>
+  </si>
+  <si>
+    <t>password_usuario</t>
+  </si>
+  <si>
+    <t>rol_usuario</t>
+  </si>
+  <si>
+    <t>imagen_usuario</t>
+  </si>
+  <si>
+    <t>pedidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_pedidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">localidad_pedido </t>
+  </si>
+  <si>
+    <t>fecha_hora_pedido</t>
+  </si>
+  <si>
+    <t>date time</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>nombre_categoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +246,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -266,15 +371,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -293,6 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108FD585-635E-482C-A2C6-617ED56DB509}">
-  <dimension ref="B4:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108FD585-635E-482C-A2C6-617ED56DB509}">
+  <dimension ref="B4:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,140 +758,264 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="4" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="M10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Basedatos/BD_Connect.xlsx
+++ b/Basedatos/BD_Connect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ConecBolivia2\Basedatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEB30B0-C241-494B-B4C5-DE1AE50FD2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C99FF-46AE-4105-897B-29A0E027CA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{8A02C603-8BAB-478F-B658-6A1F41243C8E}"/>
+    <workbookView xWindow="1740" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{8A02C603-8BAB-478F-B658-6A1F41243C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,30 @@
     <author>Wilfredo Saez Garcia</author>
   </authors>
   <commentList>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{C1A03466-3140-4D27-BEB2-A1360B20CD78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+agregar solo los meses de regalos (2 ,3,4)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D15" authorId="0" shapeId="0" xr:uid="{4A352997-0A83-46A3-B0E6-545EDB754E5C}">
       <text>
         <r>
@@ -65,17 +89,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Wilfredo Saez Garcia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-se refiere a las ofertas que se crean</t>
+          <t>marcelo
+agregar los meses de regalo</t>
         </r>
       </text>
     </comment>
@@ -84,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>BASE DE DATOS CONNECT BOLIVIA</t>
   </si>
@@ -125,9 +140,6 @@
     <t>precio_producto</t>
   </si>
   <si>
-    <t>desc_producto</t>
-  </si>
-  <si>
     <t>cantidad</t>
   </si>
   <si>
@@ -155,18 +167,6 @@
     <t xml:space="preserve">oferta_producto </t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>fecha_creacion</t>
-  </si>
-  <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imagen_producto </t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>nombre_categoria</t>
+  </si>
+  <si>
+    <t>oferta_producto</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,12 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108FD585-635E-482C-A2C6-617ED56DB509}">
-  <dimension ref="B4:M19"/>
+  <dimension ref="B4:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,36 +769,36 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -810,64 +812,64 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>16</v>
+      <c r="M10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>16</v>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>16</v>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>12</v>
@@ -875,32 +877,31 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="14"/>
       <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>16</v>
+      <c r="K12" t="s">
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -911,103 +912,87 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
